--- a/medicine/Enfance/Prix_Américas/Prix_Américas.xlsx
+++ b/medicine/Enfance/Prix_Américas/Prix_Américas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Am%C3%A9ricas</t>
+          <t>Prix_Américas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le prix Américas pour la littérature pour enfants et jeunes adultes (en anglais : Américas Award for Children’s and Young Adult Literature) est un prix littéraire décerné chaque année depuis 1993 qui récompense des livres pour enfants et jeunes adultes de haute qualité « illustrant l'Amérique latine, les Caraïbes ou les Latinos aux États-Unis » et vise à fournir des recommandations d’ouvrages à utiliser en classe pour les enseignants.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Am%C3%A9ricas</t>
+          <t>Prix_Américas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Américas est proposé en 1992 au sein du comité de l'enseignement et de la sensibilisation du Consortium des programmes d'études latino-américaines (Consortium of Latin American Studies Programs, CLASP)[1]. Il est décerné par le Consortium à partir de l’année suivante[2]. Julie Kline, de l'université du Wisconsin à Milwaukee, est présidente du comité pendant les trois premières années du prix et devient ensuite responsable de la coordination du prix pendant de nombreuses années[3]. La coordination est plus tard transférée aux centres d'études latino-américaines des universités de Tulane et de Vanderbilt[4]. Une collection de recherche complète de tous les titres lauréats, honorés et recommandés est conservée et maintenue par l'Université du Wisconsin-Milwaukee à la bibliothèque Golda Meir[5],[6].
-Le prix est remis chaque année lors d'une cérémonie à la bibliothèque du Congrès pendant le Mois du patrimoine hispanique, avec des ateliers de coordination pour les enseignants[7]. En 2020, la cérémonie se tient uniquement en ligne[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Américas est proposé en 1992 au sein du comité de l'enseignement et de la sensibilisation du Consortium des programmes d'études latino-américaines (Consortium of Latin American Studies Programs, CLASP). Il est décerné par le Consortium à partir de l’année suivante. Julie Kline, de l'université du Wisconsin à Milwaukee, est présidente du comité pendant les trois premières années du prix et devient ensuite responsable de la coordination du prix pendant de nombreuses années. La coordination est plus tard transférée aux centres d'études latino-américaines des universités de Tulane et de Vanderbilt. Une collection de recherche complète de tous les titres lauréats, honorés et recommandés est conservée et maintenue par l'Université du Wisconsin-Milwaukee à la bibliothèque Golda Meir,.
+Le prix est remis chaque année lors d'une cérémonie à la bibliothèque du Congrès pendant le Mois du patrimoine hispanique, avec des ateliers de coordination pour les enseignants. En 2020, la cérémonie se tient uniquement en ligne.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_Am%C3%A9ricas</t>
+          <t>Prix_Américas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +558,16 @@
           <t>Critères et éligibilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le jury est composé de cinq enseignants et libraires de différentes institutions, qui évaluent les livres en fonction de[9],[10] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le jury est composé de cinq enseignants et libraires de différentes institutions, qui évaluent les livres en fonction de, :
 Leur qualité littéraire distinctive ;
 Leur représentation de la culture latine ;
 L’intégration exceptionnelle de texte et d'illustrations ;
 Le potentiel d'utilisation en classe.
-Pour être éligible au prix, un titre doit répondre aux critères suivants[11] :
+Pour être éligible au prix, un titre doit répondre aux critères suivants :
 Le livre doit avoir été publié l'année précédente ;
 Le texte est accessible aux niveaux de lecture primaire ou secondaire américains ;
 La texte est en anglais, espagnol, portugais ou toute autre langue indigène des Amériques ;
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prix_Am%C3%A9ricas</t>
+          <t>Prix_Américas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,6 +602,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
